--- a/componentes.xlsx
+++ b/componentes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ohvic\Documents\ITBA\Electrónica 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco HDD\Documentos\Facultad\ITBA\4° año\2° cuatri\22.59 - Electrónica I\Cursada\Trabajos Prácticos\Electro1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13912A0-A0F6-4571-B21F-0C1A64698DAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F90A445-E893-4C53-A3C6-121FE89CCF2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D72DE419-39EB-497A-8ACB-0B27A7A984E9}"/>
+    <workbookView xWindow="-28920" yWindow="1440" windowWidth="29040" windowHeight="15840" xr2:uid="{D72DE419-39EB-497A-8ACB-0B27A7A984E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Diodos" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>Componente</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>R min max</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -494,19 +500,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D924A791-346C-4FB5-979F-9B278A382700}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -547,7 +553,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -591,8 +597,11 @@
         <f>(K2-F2)/J2</f>
         <v>43.155000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -636,8 +645,11 @@
         <f t="shared" ref="M3:M7" si="3">(K3-F3)/J3</f>
         <v>48.36195</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -681,8 +693,11 @@
         <f t="shared" si="3"/>
         <v>49.991549999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -726,8 +741,11 @@
         <f t="shared" si="3"/>
         <v>49.747950000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -771,8 +789,11 @@
         <f t="shared" si="3"/>
         <v>48.4512</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -815,6 +836,9 @@
       <c r="M7">
         <f t="shared" si="3"/>
         <v>47.120000000000005</v>
+      </c>
+      <c r="N7" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -833,12 +857,12 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -849,7 +873,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -860,7 +884,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -871,7 +895,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -882,7 +906,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -893,7 +917,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -904,7 +928,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -915,7 +939,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -926,7 +950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>

--- a/componentes.xlsx
+++ b/componentes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco HDD\Documentos\Facultad\ITBA\4° año\2° cuatri\22.59 - Electrónica I\Cursada\Trabajos Prácticos\Electro1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F90A445-E893-4C53-A3C6-121FE89CCF2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4F4602-F8F3-4EF1-AC42-558E9B66D835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1440" windowWidth="29040" windowHeight="15840" xr2:uid="{D72DE419-39EB-497A-8ACB-0B27A7A984E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D72DE419-39EB-497A-8ACB-0B27A7A984E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Diodos" sheetId="1" r:id="rId1"/>
@@ -163,12 +163,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -183,9 +189,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,7 +511,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,50 +802,50 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>2</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>3.4</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>3.6</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <v>3.8</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>0.5</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <f t="shared" si="0"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <f t="shared" si="1"/>
         <v>0.13157894736842105</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <v>10</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <f t="shared" si="2"/>
         <v>46.08</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="2">
         <f t="shared" si="3"/>
         <v>47.120000000000005</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="2" t="s">
         <v>35</v>
       </c>
     </row>
